--- a/03_Outputs/all/01_TablasDescriptivas/idx4_Capacidad_vr.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx4_Capacidad_vr.xlsx
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.9823952680375331</v>
+        <v>0.9823952680375323</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -422,7 +422,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.6199261877189375</v>
+        <v>0.6199261877189381</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>2.380073812281063</v>
+        <v>2.380073812281062</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>32.74650893458443</v>
+        <v>32.74650893458441</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>20.66420625729792</v>
+        <v>20.66420625729794</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>79.33579374270209</v>
+        <v>79.33579374270207</v>
       </c>
       <c r="C12">
         <v>2</v>
